--- a/DailyNeeds.co.id/LAPORAN/SIDANG/evaluasi.xlsx
+++ b/DailyNeeds.co.id/LAPORAN/SIDANG/evaluasi.xlsx
@@ -16814,6 +16814,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MAE Rekomendasi C4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -35530,7 +35560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
@@ -35772,8 +35802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="H41" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37728,6 +37758,7 @@
     <mergeCell ref="K3:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37735,8 +37766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
